--- a/db/PATIENT.xlsx
+++ b/db/PATIENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,9 +479,32 @@
       <c r="D2" t="n">
         <v>20</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0123456789</t>
+      <c r="E2" t="n">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>abhi@geek.crew</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1234546798</t>
         </is>
       </c>
     </row>

--- a/db/PATIENT.xlsx
+++ b/db/PATIENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,9 +502,32 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1234546798</t>
+      <c r="E3" t="n">
+        <v>1234546798</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>abhishek@hello.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0987654322</t>
         </is>
       </c>
     </row>

--- a/db/PATIENT.xlsx
+++ b/db/PATIENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,77 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>abhi@geekcrew.in</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>passwd123</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="n">
-        <v>123456789</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>abhi@geek.crew</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1234546798</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>abhishek@hello.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MALE</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0987654322</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/PATIENT.xlsx
+++ b/db/PATIENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,54 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>kushal@practo.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>passwd123</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9087654321</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>abhishek@practo.com</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>passwd123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9087654321</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/PATIENT.xlsx
+++ b/db/PATIENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,9 +502,55 @@
       <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9087654321</t>
+      <c r="E3" t="n">
+        <v>9087654321</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>svbhadri1110@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>passwd123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9087654321</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>asbhj@fkjas.com</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>efwfewfe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1234567890</t>
         </is>
       </c>
     </row>

--- a/db/PATIENT.xlsx
+++ b/db/PATIENT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,9 +548,55 @@
       <c r="D5" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1234567890</t>
+      <c r="E5" t="n">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hello@gmail.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>passwd123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>123456789</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>demo@practo.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>passwd123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FEMALE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9087654321</t>
         </is>
       </c>
     </row>
